--- a/ResultadosExpansión/sinservicioClasificado.xlsx
+++ b/ResultadosExpansión/sinservicioClasificado.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M307"/>
+  <dimension ref="A1:L307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -410,15 +410,10 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>cluster</t>
+          <t>grupo</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>grupo</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>periodo</t>
         </is>
@@ -467,17 +462,14 @@
       <c r="J2">
         <v>1721</v>
       </c>
-      <c r="K2">
-        <v>3</v>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -524,17 +516,14 @@
       <c r="J3">
         <v>5738</v>
       </c>
-      <c r="K3">
-        <v>10</v>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -581,17 +570,14 @@
       <c r="J4">
         <v>6707</v>
       </c>
-      <c r="K4">
-        <v>1</v>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -638,17 +624,14 @@
       <c r="J5">
         <v>2516</v>
       </c>
-      <c r="K5">
-        <v>5</v>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -695,17 +678,14 @@
       <c r="J6">
         <v>8497</v>
       </c>
-      <c r="K6">
-        <v>1</v>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -752,17 +732,14 @@
       <c r="J7">
         <v>1058</v>
       </c>
-      <c r="K7">
-        <v>3</v>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -809,17 +786,14 @@
       <c r="J8">
         <v>1552</v>
       </c>
-      <c r="K8">
-        <v>3</v>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -866,17 +840,14 @@
       <c r="J9">
         <v>1380</v>
       </c>
-      <c r="K9">
-        <v>3</v>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -923,15 +894,12 @@
       <c r="J10">
         <v>732</v>
       </c>
-      <c r="K10">
-        <v>4</v>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L10" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -980,17 +948,14 @@
       <c r="J11">
         <v>2981</v>
       </c>
-      <c r="K11">
-        <v>5</v>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -1037,17 +1002,14 @@
       <c r="J12">
         <v>1388</v>
       </c>
-      <c r="K12">
-        <v>3</v>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -1094,15 +1056,12 @@
       <c r="J13">
         <v>701</v>
       </c>
-      <c r="K13">
-        <v>4</v>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L13" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -1151,17 +1110,14 @@
       <c r="J14">
         <v>1315</v>
       </c>
-      <c r="K14">
-        <v>3</v>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -1208,17 +1164,14 @@
       <c r="J15">
         <v>1779</v>
       </c>
-      <c r="K15">
-        <v>3</v>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -1265,17 +1218,14 @@
       <c r="J16">
         <v>1692</v>
       </c>
-      <c r="K16">
-        <v>3</v>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -1322,17 +1272,14 @@
       <c r="J17">
         <v>753</v>
       </c>
-      <c r="K17">
-        <v>6</v>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1326,14 @@
       <c r="J18">
         <v>2648</v>
       </c>
-      <c r="K18">
-        <v>5</v>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -1436,17 +1380,14 @@
       <c r="J19">
         <v>1849</v>
       </c>
-      <c r="K19">
-        <v>3</v>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -1493,17 +1434,14 @@
       <c r="J20">
         <v>1618</v>
       </c>
-      <c r="K20">
-        <v>3</v>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -1550,17 +1488,14 @@
       <c r="J21">
         <v>1058</v>
       </c>
-      <c r="K21">
-        <v>3</v>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -1607,17 +1542,14 @@
       <c r="J22">
         <v>1158</v>
       </c>
-      <c r="K22">
-        <v>3</v>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -1664,17 +1596,14 @@
       <c r="J23">
         <v>1875</v>
       </c>
-      <c r="K23">
-        <v>3</v>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -1721,17 +1650,14 @@
       <c r="J24">
         <v>1237</v>
       </c>
-      <c r="K24">
-        <v>3</v>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -1778,17 +1704,14 @@
       <c r="J25">
         <v>1691</v>
       </c>
-      <c r="K25">
-        <v>6</v>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -1835,17 +1758,14 @@
       <c r="J26">
         <v>1770</v>
       </c>
-      <c r="K26">
-        <v>7</v>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -1892,17 +1812,14 @@
       <c r="J27">
         <v>1896</v>
       </c>
-      <c r="K27">
-        <v>5</v>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -1949,17 +1866,14 @@
       <c r="J28">
         <v>2745</v>
       </c>
-      <c r="K28">
-        <v>5</v>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -2006,17 +1920,14 @@
       <c r="J29">
         <v>1005</v>
       </c>
-      <c r="K29">
-        <v>3</v>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -2063,17 +1974,14 @@
       <c r="J30">
         <v>1837</v>
       </c>
-      <c r="K30">
-        <v>7</v>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -2120,17 +2028,14 @@
       <c r="J31">
         <v>1191</v>
       </c>
-      <c r="K31">
-        <v>3</v>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -2177,17 +2082,14 @@
       <c r="J32">
         <v>1078</v>
       </c>
-      <c r="K32">
-        <v>3</v>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -2234,17 +2136,14 @@
       <c r="J33">
         <v>1692</v>
       </c>
-      <c r="K33">
-        <v>3</v>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -2291,17 +2190,14 @@
       <c r="J34">
         <v>3223</v>
       </c>
-      <c r="K34">
-        <v>9</v>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -2348,17 +2244,14 @@
       <c r="J35">
         <v>1680</v>
       </c>
-      <c r="K35">
-        <v>3</v>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -2405,17 +2298,14 @@
       <c r="J36">
         <v>2127</v>
       </c>
-      <c r="K36">
-        <v>5</v>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -2462,17 +2352,14 @@
       <c r="J37">
         <v>1357</v>
       </c>
-      <c r="K37">
-        <v>3</v>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -2519,17 +2406,14 @@
       <c r="J38">
         <v>4732</v>
       </c>
-      <c r="K38">
-        <v>2</v>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -2576,15 +2460,12 @@
       <c r="J39">
         <v>670</v>
       </c>
-      <c r="K39">
-        <v>4</v>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L39" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -2633,17 +2514,14 @@
       <c r="J40">
         <v>1393</v>
       </c>
-      <c r="K40">
-        <v>3</v>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -2690,17 +2568,14 @@
       <c r="J41">
         <v>1364</v>
       </c>
-      <c r="K41">
-        <v>6</v>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -2747,17 +2622,14 @@
       <c r="J42">
         <v>1699</v>
       </c>
-      <c r="K42">
-        <v>6</v>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -2804,17 +2676,14 @@
       <c r="J43">
         <v>2254</v>
       </c>
-      <c r="K43">
-        <v>5</v>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2730,14 @@
       <c r="J44">
         <v>1951</v>
       </c>
-      <c r="K44">
-        <v>5</v>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -2918,15 +2784,12 @@
       <c r="J45">
         <v>746</v>
       </c>
-      <c r="K45">
-        <v>4</v>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L45" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -2975,15 +2838,12 @@
       <c r="J46">
         <v>641</v>
       </c>
-      <c r="K46">
-        <v>4</v>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L46" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -3032,17 +2892,14 @@
       <c r="J47">
         <v>1144</v>
       </c>
-      <c r="K47">
-        <v>3</v>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -3089,17 +2946,14 @@
       <c r="J48">
         <v>929</v>
       </c>
-      <c r="K48">
-        <v>3</v>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -3146,17 +3000,14 @@
       <c r="J49">
         <v>1482</v>
       </c>
-      <c r="K49">
-        <v>7</v>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -3203,17 +3054,14 @@
       <c r="J50">
         <v>3866</v>
       </c>
-      <c r="K50">
-        <v>2</v>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -3260,17 +3108,14 @@
       <c r="J51">
         <v>1762</v>
       </c>
-      <c r="K51">
-        <v>3</v>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -3317,17 +3162,14 @@
       <c r="J52">
         <v>3561</v>
       </c>
-      <c r="K52">
-        <v>2</v>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -3374,17 +3216,14 @@
       <c r="J53">
         <v>3431</v>
       </c>
-      <c r="K53">
-        <v>2</v>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -3431,17 +3270,14 @@
       <c r="J54">
         <v>2554</v>
       </c>
-      <c r="K54">
-        <v>5</v>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -3488,17 +3324,14 @@
       <c r="J55">
         <v>1945</v>
       </c>
-      <c r="K55">
-        <v>5</v>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -3545,17 +3378,14 @@
       <c r="J56">
         <v>1030</v>
       </c>
-      <c r="K56">
-        <v>3</v>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -3602,17 +3432,14 @@
       <c r="J57">
         <v>3264</v>
       </c>
-      <c r="K57">
-        <v>2</v>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -3659,17 +3486,14 @@
       <c r="J58">
         <v>2733</v>
       </c>
-      <c r="K58">
-        <v>5</v>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -3716,17 +3540,14 @@
       <c r="J59">
         <v>4682</v>
       </c>
-      <c r="K59">
-        <v>2</v>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -3773,15 +3594,12 @@
       <c r="J60">
         <v>257</v>
       </c>
-      <c r="K60">
-        <v>4</v>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L60" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -3830,15 +3648,12 @@
       <c r="J61">
         <v>588</v>
       </c>
-      <c r="K61">
-        <v>4</v>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L61" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -3887,15 +3702,12 @@
       <c r="J62">
         <v>630</v>
       </c>
-      <c r="K62">
-        <v>4</v>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L62" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -3944,15 +3756,12 @@
       <c r="J63">
         <v>711</v>
       </c>
-      <c r="K63">
-        <v>4</v>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L63" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -4001,17 +3810,14 @@
       <c r="J64">
         <v>3045</v>
       </c>
-      <c r="K64">
-        <v>5</v>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -4058,15 +3864,12 @@
       <c r="J65">
         <v>684</v>
       </c>
-      <c r="K65">
-        <v>4</v>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L65" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -4115,15 +3918,12 @@
       <c r="J66">
         <v>724</v>
       </c>
-      <c r="K66">
-        <v>4</v>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L66" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -4172,17 +3972,14 @@
       <c r="J67">
         <v>1083</v>
       </c>
-      <c r="K67">
-        <v>3</v>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -4229,15 +4026,12 @@
       <c r="J68">
         <v>224</v>
       </c>
-      <c r="K68">
-        <v>4</v>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L68" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -4286,17 +4080,14 @@
       <c r="J69">
         <v>1156</v>
       </c>
-      <c r="K69">
-        <v>3</v>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -4343,15 +4134,12 @@
       <c r="J70">
         <v>659</v>
       </c>
-      <c r="K70">
-        <v>4</v>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L70" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -4400,17 +4188,14 @@
       <c r="J71">
         <v>3281</v>
       </c>
-      <c r="K71">
-        <v>2</v>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -4457,15 +4242,12 @@
       <c r="J72">
         <v>872</v>
       </c>
-      <c r="K72">
-        <v>4</v>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L72" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -4514,15 +4296,12 @@
       <c r="J73">
         <v>274</v>
       </c>
-      <c r="K73">
-        <v>4</v>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L73" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -4571,17 +4350,14 @@
       <c r="J74">
         <v>1294</v>
       </c>
-      <c r="K74">
-        <v>7</v>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -4628,15 +4404,12 @@
       <c r="J75">
         <v>786</v>
       </c>
-      <c r="K75">
-        <v>4</v>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L75" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -4685,15 +4458,12 @@
       <c r="J76">
         <v>533</v>
       </c>
-      <c r="K76">
-        <v>4</v>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L76" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -4742,15 +4512,12 @@
       <c r="J77">
         <v>389</v>
       </c>
-      <c r="K77">
-        <v>4</v>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L77" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -4799,15 +4566,12 @@
       <c r="J78">
         <v>249</v>
       </c>
-      <c r="K78">
-        <v>4</v>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L78" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -4856,17 +4620,14 @@
       <c r="J79">
         <v>883</v>
       </c>
-      <c r="K79">
-        <v>7</v>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -4913,17 +4674,14 @@
       <c r="J80">
         <v>2253</v>
       </c>
-      <c r="K80">
-        <v>5</v>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -4970,17 +4728,14 @@
       <c r="J81">
         <v>1413</v>
       </c>
-      <c r="K81">
-        <v>3</v>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -5027,17 +4782,14 @@
       <c r="J82">
         <v>985</v>
       </c>
-      <c r="K82">
-        <v>3</v>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -5084,15 +4836,12 @@
       <c r="J83">
         <v>435</v>
       </c>
-      <c r="K83">
-        <v>4</v>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L83" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M83" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -5141,15 +4890,12 @@
       <c r="J84">
         <v>468</v>
       </c>
-      <c r="K84">
-        <v>4</v>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L84" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M84" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -5198,15 +4944,12 @@
       <c r="J85">
         <v>302</v>
       </c>
-      <c r="K85">
-        <v>4</v>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L85" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M85" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -5255,17 +4998,14 @@
       <c r="J86">
         <v>1586</v>
       </c>
-      <c r="K86">
-        <v>3</v>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -5312,17 +5052,14 @@
       <c r="J87">
         <v>4433</v>
       </c>
-      <c r="K87">
-        <v>9</v>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -5369,17 +5106,14 @@
       <c r="J88">
         <v>2165</v>
       </c>
-      <c r="K88">
-        <v>5</v>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -5426,17 +5160,14 @@
       <c r="J89">
         <v>1357</v>
       </c>
-      <c r="K89">
-        <v>3</v>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -5483,17 +5214,14 @@
       <c r="J90">
         <v>1264</v>
       </c>
-      <c r="K90">
-        <v>3</v>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -5540,15 +5268,12 @@
       <c r="J91">
         <v>517</v>
       </c>
-      <c r="K91">
-        <v>4</v>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L91" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -5597,17 +5322,14 @@
       <c r="J92">
         <v>1194</v>
       </c>
-      <c r="K92">
-        <v>6</v>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -5654,15 +5376,12 @@
       <c r="J93">
         <v>538</v>
       </c>
-      <c r="K93">
-        <v>4</v>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L93" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M93" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -5711,15 +5430,12 @@
       <c r="J94">
         <v>692</v>
       </c>
-      <c r="K94">
-        <v>4</v>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L94" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -5768,17 +5484,14 @@
       <c r="J95">
         <v>937</v>
       </c>
-      <c r="K95">
-        <v>3</v>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -5825,17 +5538,14 @@
       <c r="J96">
         <v>1446</v>
       </c>
-      <c r="K96">
-        <v>3</v>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -5882,17 +5592,14 @@
       <c r="J97">
         <v>3726</v>
       </c>
-      <c r="K97">
-        <v>9</v>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -5939,17 +5646,14 @@
       <c r="J98">
         <v>970</v>
       </c>
-      <c r="K98">
-        <v>3</v>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -5996,17 +5700,14 @@
       <c r="J99">
         <v>2310</v>
       </c>
-      <c r="K99">
-        <v>5</v>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -6053,17 +5754,14 @@
       <c r="J100">
         <v>963</v>
       </c>
-      <c r="K100">
-        <v>6</v>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -6110,15 +5808,12 @@
       <c r="J101">
         <v>817</v>
       </c>
-      <c r="K101">
-        <v>4</v>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L101" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M101" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -6167,17 +5862,14 @@
       <c r="J102">
         <v>1594</v>
       </c>
-      <c r="K102">
-        <v>3</v>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -6224,15 +5916,12 @@
       <c r="J103">
         <v>768</v>
       </c>
-      <c r="K103">
-        <v>4</v>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L103" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -6281,15 +5970,12 @@
       <c r="J104">
         <v>880</v>
       </c>
-      <c r="K104">
-        <v>4</v>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L104" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M104" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -6338,15 +6024,12 @@
       <c r="J105">
         <v>700</v>
       </c>
-      <c r="K105">
-        <v>4</v>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L105" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M105" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -6395,17 +6078,14 @@
       <c r="J106">
         <v>2760</v>
       </c>
-      <c r="K106">
-        <v>7</v>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -6452,17 +6132,14 @@
       <c r="J107">
         <v>1388</v>
       </c>
-      <c r="K107">
-        <v>3</v>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -6509,15 +6186,12 @@
       <c r="J108">
         <v>535</v>
       </c>
-      <c r="K108">
-        <v>4</v>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L108" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M108" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -6566,17 +6240,14 @@
       <c r="J109">
         <v>1363</v>
       </c>
-      <c r="K109">
-        <v>3</v>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -6623,17 +6294,14 @@
       <c r="J110">
         <v>1838</v>
       </c>
-      <c r="K110">
-        <v>3</v>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -6680,17 +6348,14 @@
       <c r="J111">
         <v>3577</v>
       </c>
-      <c r="K111">
-        <v>9</v>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -6737,17 +6402,14 @@
       <c r="J112">
         <v>6316</v>
       </c>
-      <c r="K112">
-        <v>8</v>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -6794,17 +6456,14 @@
       <c r="J113">
         <v>1433</v>
       </c>
-      <c r="K113">
-        <v>3</v>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -6851,17 +6510,14 @@
       <c r="J114">
         <v>2842</v>
       </c>
-      <c r="K114">
-        <v>5</v>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -6908,17 +6564,14 @@
       <c r="J115">
         <v>1659</v>
       </c>
-      <c r="K115">
-        <v>3</v>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -6965,15 +6618,12 @@
       <c r="J116">
         <v>533</v>
       </c>
-      <c r="K116">
-        <v>4</v>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L116" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M116" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -7022,17 +6672,14 @@
       <c r="J117">
         <v>1439</v>
       </c>
-      <c r="K117">
-        <v>3</v>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -7079,17 +6726,14 @@
       <c r="J118">
         <v>1415</v>
       </c>
-      <c r="K118">
-        <v>3</v>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -7136,15 +6780,12 @@
       <c r="J119">
         <v>247</v>
       </c>
-      <c r="K119">
-        <v>4</v>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L119" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M119" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -7193,17 +6834,14 @@
       <c r="J120">
         <v>1053</v>
       </c>
-      <c r="K120">
-        <v>3</v>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -7250,15 +6888,12 @@
       <c r="J121">
         <v>786</v>
       </c>
-      <c r="K121">
-        <v>4</v>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L121" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M121" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -7307,17 +6942,14 @@
       <c r="J122">
         <v>1369</v>
       </c>
-      <c r="K122">
-        <v>3</v>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -7364,15 +6996,12 @@
       <c r="J123">
         <v>511</v>
       </c>
-      <c r="K123">
-        <v>4</v>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L123" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M123" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -7421,17 +7050,14 @@
       <c r="J124">
         <v>3358</v>
       </c>
-      <c r="K124">
-        <v>9</v>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -7478,17 +7104,14 @@
       <c r="J125">
         <v>4508</v>
       </c>
-      <c r="K125">
-        <v>9</v>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -7535,17 +7158,14 @@
       <c r="J126">
         <v>3561</v>
       </c>
-      <c r="K126">
-        <v>2</v>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -7592,17 +7212,14 @@
       <c r="J127">
         <v>3258</v>
       </c>
-      <c r="K127">
-        <v>2</v>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -7649,17 +7266,14 @@
       <c r="J128">
         <v>1780</v>
       </c>
-      <c r="K128">
-        <v>6</v>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M128" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -7706,15 +7320,12 @@
       <c r="J129">
         <v>328</v>
       </c>
-      <c r="K129">
-        <v>4</v>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L129" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M129" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -7763,17 +7374,14 @@
       <c r="J130">
         <v>1664</v>
       </c>
-      <c r="K130">
-        <v>6</v>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M130" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -7820,15 +7428,12 @@
       <c r="J131">
         <v>592</v>
       </c>
-      <c r="K131">
-        <v>4</v>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L131" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M131" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -7877,15 +7482,12 @@
       <c r="J132">
         <v>221</v>
       </c>
-      <c r="K132">
-        <v>4</v>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L132" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M132" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -7934,17 +7536,14 @@
       <c r="J133">
         <v>1020</v>
       </c>
-      <c r="K133">
-        <v>3</v>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -7991,17 +7590,14 @@
       <c r="J134">
         <v>976</v>
       </c>
-      <c r="K134">
-        <v>7</v>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M134" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -8048,17 +7644,14 @@
       <c r="J135">
         <v>1871</v>
       </c>
-      <c r="K135">
-        <v>6</v>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M135" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -8105,17 +7698,14 @@
       <c r="J136">
         <v>2004</v>
       </c>
-      <c r="K136">
-        <v>5</v>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M136" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -8162,17 +7752,14 @@
       <c r="J137">
         <v>1680</v>
       </c>
-      <c r="K137">
-        <v>6</v>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M137" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -8219,17 +7806,14 @@
       <c r="J138">
         <v>1025</v>
       </c>
-      <c r="K138">
-        <v>3</v>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -8276,17 +7860,14 @@
       <c r="J139">
         <v>2082</v>
       </c>
-      <c r="K139">
-        <v>5</v>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -8333,17 +7914,14 @@
       <c r="J140">
         <v>1010</v>
       </c>
-      <c r="K140">
-        <v>3</v>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M140" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -8390,17 +7968,14 @@
       <c r="J141">
         <v>1305</v>
       </c>
-      <c r="K141">
-        <v>3</v>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M141" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -8447,17 +8022,14 @@
       <c r="J142">
         <v>1413</v>
       </c>
-      <c r="K142">
-        <v>7</v>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M142" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -8504,17 +8076,14 @@
       <c r="J143">
         <v>1502</v>
       </c>
-      <c r="K143">
-        <v>7</v>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M143" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -8561,17 +8130,14 @@
       <c r="J144">
         <v>2658</v>
       </c>
-      <c r="K144">
-        <v>5</v>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -8618,17 +8184,14 @@
       <c r="J145">
         <v>1016</v>
       </c>
-      <c r="K145">
-        <v>3</v>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -8675,17 +8238,14 @@
       <c r="J146">
         <v>1387</v>
       </c>
-      <c r="K146">
-        <v>3</v>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M146" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -8732,15 +8292,12 @@
       <c r="J147">
         <v>293</v>
       </c>
-      <c r="K147">
-        <v>4</v>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L147" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M147" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -8789,15 +8346,12 @@
       <c r="J148">
         <v>457</v>
       </c>
-      <c r="K148">
-        <v>4</v>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L148" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M148" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -8846,17 +8400,14 @@
       <c r="J149">
         <v>1165</v>
       </c>
-      <c r="K149">
-        <v>3</v>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M149" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -8903,15 +8454,12 @@
       <c r="J150">
         <v>704</v>
       </c>
-      <c r="K150">
-        <v>4</v>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L150" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M150" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -8960,15 +8508,12 @@
       <c r="J151">
         <v>382</v>
       </c>
-      <c r="K151">
-        <v>4</v>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L151" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M151" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -9017,15 +8562,12 @@
       <c r="J152">
         <v>605</v>
       </c>
-      <c r="K152">
-        <v>4</v>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L152" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M152" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -9074,17 +8616,14 @@
       <c r="J153">
         <v>2163</v>
       </c>
-      <c r="K153">
-        <v>5</v>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -9131,17 +8670,14 @@
       <c r="J154">
         <v>2050</v>
       </c>
-      <c r="K154">
-        <v>5</v>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -9188,17 +8724,14 @@
       <c r="J155">
         <v>1450</v>
       </c>
-      <c r="K155">
-        <v>3</v>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -9245,17 +8778,14 @@
       <c r="J156">
         <v>1647</v>
       </c>
-      <c r="K156">
-        <v>3</v>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M156" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -9302,15 +8832,12 @@
       <c r="J157">
         <v>802</v>
       </c>
-      <c r="K157">
-        <v>4</v>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L157" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M157" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -9359,17 +8886,14 @@
       <c r="J158">
         <v>1719</v>
       </c>
-      <c r="K158">
-        <v>7</v>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -9416,17 +8940,14 @@
       <c r="J159">
         <v>985</v>
       </c>
-      <c r="K159">
-        <v>3</v>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -9473,17 +8994,14 @@
       <c r="J160">
         <v>1361</v>
       </c>
-      <c r="K160">
-        <v>3</v>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -9530,15 +9048,12 @@
       <c r="J161">
         <v>634</v>
       </c>
-      <c r="K161">
-        <v>4</v>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L161" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M161" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -9587,17 +9102,14 @@
       <c r="J162">
         <v>991</v>
       </c>
-      <c r="K162">
-        <v>3</v>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M162" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -9644,17 +9156,14 @@
       <c r="J163">
         <v>2406</v>
       </c>
-      <c r="K163">
-        <v>5</v>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M163" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -9701,17 +9210,14 @@
       <c r="J164">
         <v>1586</v>
       </c>
-      <c r="K164">
-        <v>3</v>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M164" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -9758,17 +9264,14 @@
       <c r="J165">
         <v>1077</v>
       </c>
-      <c r="K165">
-        <v>3</v>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M165" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -9815,17 +9318,14 @@
       <c r="J166">
         <v>1735</v>
       </c>
-      <c r="K166">
-        <v>7</v>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M166" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -9872,17 +9372,14 @@
       <c r="J167">
         <v>1237</v>
       </c>
-      <c r="K167">
-        <v>3</v>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M167" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -9929,17 +9426,14 @@
       <c r="J168">
         <v>1335</v>
       </c>
-      <c r="K168">
-        <v>3</v>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M168" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -9986,17 +9480,14 @@
       <c r="J169">
         <v>1157</v>
       </c>
-      <c r="K169">
-        <v>3</v>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M169" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -10043,17 +9534,14 @@
       <c r="J170">
         <v>2423</v>
       </c>
-      <c r="K170">
-        <v>5</v>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M170" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -10100,17 +9588,14 @@
       <c r="J171">
         <v>1308</v>
       </c>
-      <c r="K171">
-        <v>3</v>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M171" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -10157,17 +9642,14 @@
       <c r="J172">
         <v>1047</v>
       </c>
-      <c r="K172">
-        <v>3</v>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M172" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -10214,17 +9696,14 @@
       <c r="J173">
         <v>972</v>
       </c>
-      <c r="K173">
-        <v>3</v>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M173" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -10271,17 +9750,14 @@
       <c r="J174">
         <v>1558</v>
       </c>
-      <c r="K174">
-        <v>3</v>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M174" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -10328,17 +9804,14 @@
       <c r="J175">
         <v>1514</v>
       </c>
-      <c r="K175">
-        <v>3</v>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M175" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -10385,15 +9858,12 @@
       <c r="J176">
         <v>816</v>
       </c>
-      <c r="K176">
-        <v>4</v>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L176" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M176" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -10442,15 +9912,12 @@
       <c r="J177">
         <v>868</v>
       </c>
-      <c r="K177">
-        <v>4</v>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L177" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M177" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -10499,17 +9966,14 @@
       <c r="J178">
         <v>1913</v>
       </c>
-      <c r="K178">
-        <v>5</v>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M178" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -10556,17 +10020,14 @@
       <c r="J179">
         <v>1685</v>
       </c>
-      <c r="K179">
-        <v>3</v>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M179" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -10613,17 +10074,14 @@
       <c r="J180">
         <v>1207</v>
       </c>
-      <c r="K180">
-        <v>3</v>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M180" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -10670,15 +10128,12 @@
       <c r="J181">
         <v>473</v>
       </c>
-      <c r="K181">
-        <v>4</v>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L181" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M181" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -10727,17 +10182,14 @@
       <c r="J182">
         <v>995</v>
       </c>
-      <c r="K182">
-        <v>3</v>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M182" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -10784,17 +10236,14 @@
       <c r="J183">
         <v>2060</v>
       </c>
-      <c r="K183">
-        <v>5</v>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M183" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -10841,17 +10290,14 @@
       <c r="J184">
         <v>2961</v>
       </c>
-      <c r="K184">
-        <v>5</v>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M184" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -10898,15 +10344,12 @@
       <c r="J185">
         <v>293</v>
       </c>
-      <c r="K185">
-        <v>4</v>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L185" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M185" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -10955,15 +10398,12 @@
       <c r="J186">
         <v>462</v>
       </c>
-      <c r="K186">
-        <v>4</v>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L186" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M186" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -11012,17 +10452,14 @@
       <c r="J187">
         <v>2733</v>
       </c>
-      <c r="K187">
-        <v>5</v>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M187" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -11069,17 +10506,14 @@
       <c r="J188">
         <v>2717</v>
       </c>
-      <c r="K188">
-        <v>7</v>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M188" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -11126,17 +10560,14 @@
       <c r="J189">
         <v>3418</v>
       </c>
-      <c r="K189">
-        <v>9</v>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M189" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -11183,17 +10614,14 @@
       <c r="J190">
         <v>1816</v>
       </c>
-      <c r="K190">
-        <v>3</v>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M190" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -11240,17 +10668,14 @@
       <c r="J191">
         <v>1747</v>
       </c>
-      <c r="K191">
-        <v>3</v>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M191" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -11297,17 +10722,14 @@
       <c r="J192">
         <v>6009</v>
       </c>
-      <c r="K192">
-        <v>8</v>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M192" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -11354,15 +10776,12 @@
       <c r="J193">
         <v>399</v>
       </c>
-      <c r="K193">
-        <v>4</v>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L193" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M193" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -11411,17 +10830,14 @@
       <c r="J194">
         <v>1221</v>
       </c>
-      <c r="K194">
-        <v>3</v>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M194" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -11468,15 +10884,12 @@
       <c r="J195">
         <v>223</v>
       </c>
-      <c r="K195">
-        <v>4</v>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L195" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M195" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -11525,17 +10938,14 @@
       <c r="J196">
         <v>2813</v>
       </c>
-      <c r="K196">
-        <v>5</v>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M196" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -11582,15 +10992,12 @@
       <c r="J197">
         <v>165</v>
       </c>
-      <c r="K197">
-        <v>4</v>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L197" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M197" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -11639,15 +11046,12 @@
       <c r="J198">
         <v>209</v>
       </c>
-      <c r="K198">
-        <v>4</v>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L198" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M198" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -11696,17 +11100,14 @@
       <c r="J199">
         <v>6557</v>
       </c>
-      <c r="K199">
-        <v>8</v>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M199" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -11753,15 +11154,12 @@
       <c r="J200">
         <v>551</v>
       </c>
-      <c r="K200">
-        <v>4</v>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L200" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M200" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -11810,15 +11208,12 @@
       <c r="J201">
         <v>570</v>
       </c>
-      <c r="K201">
-        <v>4</v>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L201" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M201" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -11867,15 +11262,12 @@
       <c r="J202">
         <v>663</v>
       </c>
-      <c r="K202">
-        <v>4</v>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L202" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M202" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -11924,15 +11316,12 @@
       <c r="J203">
         <v>125</v>
       </c>
-      <c r="K203">
-        <v>4</v>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L203" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M203" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -11981,15 +11370,12 @@
       <c r="J204">
         <v>729</v>
       </c>
-      <c r="K204">
-        <v>4</v>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L204" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M204" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -12038,17 +11424,14 @@
       <c r="J205">
         <v>1091</v>
       </c>
-      <c r="K205">
-        <v>6</v>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M205" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -12095,17 +11478,14 @@
       <c r="J206">
         <v>1468</v>
       </c>
-      <c r="K206">
-        <v>3</v>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M206" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -12152,15 +11532,12 @@
       <c r="J207">
         <v>424</v>
       </c>
-      <c r="K207">
-        <v>4</v>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L207" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M207" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -12209,15 +11586,12 @@
       <c r="J208">
         <v>818</v>
       </c>
-      <c r="K208">
-        <v>4</v>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L208" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M208" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -12266,17 +11640,14 @@
       <c r="J209">
         <v>974</v>
       </c>
-      <c r="K209">
-        <v>3</v>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M209" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -12323,15 +11694,12 @@
       <c r="J210">
         <v>315</v>
       </c>
-      <c r="K210">
-        <v>4</v>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L210" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M210" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -12380,17 +11748,14 @@
       <c r="J211">
         <v>2515</v>
       </c>
-      <c r="K211">
-        <v>5</v>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M211" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -12437,17 +11802,14 @@
       <c r="J212">
         <v>1361</v>
       </c>
-      <c r="K212">
-        <v>3</v>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M212" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -12494,15 +11856,12 @@
       <c r="J213">
         <v>443</v>
       </c>
-      <c r="K213">
-        <v>4</v>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L213" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M213" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -12551,15 +11910,12 @@
       <c r="J214">
         <v>596</v>
       </c>
-      <c r="K214">
-        <v>4</v>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L214" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M214" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -12608,17 +11964,14 @@
       <c r="J215">
         <v>1157</v>
       </c>
-      <c r="K215">
-        <v>3</v>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M215" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -12665,17 +12018,14 @@
       <c r="J216">
         <v>2419</v>
       </c>
-      <c r="K216">
-        <v>5</v>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M216" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -12722,17 +12072,14 @@
       <c r="J217">
         <v>1378</v>
       </c>
-      <c r="K217">
-        <v>7</v>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M217" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -12779,15 +12126,12 @@
       <c r="J218">
         <v>218</v>
       </c>
-      <c r="K218">
-        <v>4</v>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L218" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M218" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -12836,15 +12180,12 @@
       <c r="J219">
         <v>911</v>
       </c>
-      <c r="K219">
-        <v>4</v>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L219" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M219" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -12893,15 +12234,12 @@
       <c r="J220">
         <v>219</v>
       </c>
-      <c r="K220">
-        <v>4</v>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L220" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M220" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -12950,15 +12288,12 @@
       <c r="J221">
         <v>477</v>
       </c>
-      <c r="K221">
-        <v>4</v>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L221" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M221" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -13007,17 +12342,14 @@
       <c r="J222">
         <v>2069</v>
       </c>
-      <c r="K222">
-        <v>5</v>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M222" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -13064,17 +12396,14 @@
       <c r="J223">
         <v>5229</v>
       </c>
-      <c r="K223">
-        <v>9</v>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M223" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -13121,17 +12450,14 @@
       <c r="J224">
         <v>4225</v>
       </c>
-      <c r="K224">
-        <v>9</v>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M224" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -13178,17 +12504,14 @@
       <c r="J225">
         <v>2206</v>
       </c>
-      <c r="K225">
-        <v>5</v>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M225" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -13235,17 +12558,14 @@
       <c r="J226">
         <v>2674</v>
       </c>
-      <c r="K226">
-        <v>5</v>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L226" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M226" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -13292,17 +12612,14 @@
       <c r="J227">
         <v>3774</v>
       </c>
-      <c r="K227">
-        <v>9</v>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M227" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -13349,17 +12666,14 @@
       <c r="J228">
         <v>2179</v>
       </c>
-      <c r="K228">
-        <v>5</v>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M228" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -13406,15 +12720,12 @@
       <c r="J229">
         <v>174</v>
       </c>
-      <c r="K229">
-        <v>4</v>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L229" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M229" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -13463,15 +12774,12 @@
       <c r="J230">
         <v>697</v>
       </c>
-      <c r="K230">
-        <v>4</v>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L230" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M230" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -13520,15 +12828,12 @@
       <c r="J231">
         <v>471</v>
       </c>
-      <c r="K231">
-        <v>4</v>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L231" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M231" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -13577,15 +12882,12 @@
       <c r="J232">
         <v>132</v>
       </c>
-      <c r="K232">
-        <v>4</v>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L232" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M232" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -13634,17 +12936,14 @@
       <c r="J233">
         <v>2696</v>
       </c>
-      <c r="K233">
-        <v>5</v>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M233" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -13691,17 +12990,14 @@
       <c r="J234">
         <v>1402</v>
       </c>
-      <c r="K234">
-        <v>7</v>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M234" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -13748,17 +13044,14 @@
       <c r="J235">
         <v>4863</v>
       </c>
-      <c r="K235">
-        <v>9</v>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L235" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M235" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -13805,15 +13098,12 @@
       <c r="J236">
         <v>284</v>
       </c>
-      <c r="K236">
-        <v>4</v>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L236" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M236" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -13862,15 +13152,12 @@
       <c r="J237">
         <v>457</v>
       </c>
-      <c r="K237">
-        <v>4</v>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L237" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M237" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -13919,17 +13206,14 @@
       <c r="J238">
         <v>1055</v>
       </c>
-      <c r="K238">
-        <v>3</v>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L238" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M238" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -13976,17 +13260,14 @@
       <c r="J239">
         <v>4072</v>
       </c>
-      <c r="K239">
-        <v>9</v>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M239" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -14033,17 +13314,14 @@
       <c r="J240">
         <v>3684</v>
       </c>
-      <c r="K240">
-        <v>9</v>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M240" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -14090,15 +13368,12 @@
       <c r="J241">
         <v>879</v>
       </c>
-      <c r="K241">
-        <v>4</v>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L241" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M241" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -14147,17 +13422,14 @@
       <c r="J242">
         <v>3863</v>
       </c>
-      <c r="K242">
-        <v>9</v>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M242" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -14204,17 +13476,14 @@
       <c r="J243">
         <v>579</v>
       </c>
-      <c r="K243">
-        <v>6</v>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M243" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -14261,17 +13530,14 @@
       <c r="J244">
         <v>1425</v>
       </c>
-      <c r="K244">
-        <v>7</v>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M244" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -14318,17 +13584,14 @@
       <c r="J245">
         <v>2028</v>
       </c>
-      <c r="K245">
-        <v>7</v>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M245" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -14375,17 +13638,14 @@
       <c r="J246">
         <v>8474</v>
       </c>
-      <c r="K246">
-        <v>8</v>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L246" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M246" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -14432,17 +13692,14 @@
       <c r="J247">
         <v>7523</v>
       </c>
-      <c r="K247">
-        <v>10</v>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L247" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M247" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -14489,17 +13746,14 @@
       <c r="J248">
         <v>10382</v>
       </c>
-      <c r="K248">
-        <v>1</v>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L248" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M248" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -14546,15 +13800,12 @@
       <c r="J249">
         <v>343</v>
       </c>
-      <c r="K249">
-        <v>4</v>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L249" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M249" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -14603,17 +13854,14 @@
       <c r="J250">
         <v>1440</v>
       </c>
-      <c r="K250">
-        <v>6</v>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L250" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M250" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -14660,17 +13908,14 @@
       <c r="J251">
         <v>1385</v>
       </c>
-      <c r="K251">
-        <v>3</v>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L251" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M251" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -14717,17 +13962,14 @@
       <c r="J252">
         <v>3007</v>
       </c>
-      <c r="K252">
-        <v>5</v>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L252" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M252" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -14774,17 +14016,14 @@
       <c r="J253">
         <v>2626</v>
       </c>
-      <c r="K253">
-        <v>6</v>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M253" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -14831,17 +14070,14 @@
       <c r="J254">
         <v>2925</v>
       </c>
-      <c r="K254">
-        <v>5</v>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M254" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -14888,17 +14124,14 @@
       <c r="J255">
         <v>2186</v>
       </c>
-      <c r="K255">
-        <v>7</v>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M255" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -14945,17 +14178,14 @@
       <c r="J256">
         <v>2675</v>
       </c>
-      <c r="K256">
-        <v>5</v>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M256" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -15002,17 +14232,14 @@
       <c r="J257">
         <v>6288</v>
       </c>
-      <c r="K257">
-        <v>8</v>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M257" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -15059,15 +14286,12 @@
       <c r="J258">
         <v>239</v>
       </c>
-      <c r="K258">
-        <v>4</v>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L258" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M258" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -15116,17 +14340,14 @@
       <c r="J259">
         <v>2266</v>
       </c>
-      <c r="K259">
-        <v>5</v>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M259" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -15173,17 +14394,14 @@
       <c r="J260">
         <v>3265</v>
       </c>
-      <c r="K260">
-        <v>9</v>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L260" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M260" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -15230,17 +14448,14 @@
       <c r="J261">
         <v>1807</v>
       </c>
-      <c r="K261">
-        <v>7</v>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M261" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -15287,17 +14502,14 @@
       <c r="J262">
         <v>5146</v>
       </c>
-      <c r="K262">
-        <v>2</v>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M262" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -15344,17 +14556,14 @@
       <c r="J263">
         <v>1234</v>
       </c>
-      <c r="K263">
-        <v>6</v>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M263" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -15401,17 +14610,14 @@
       <c r="J264">
         <v>3477</v>
       </c>
-      <c r="K264">
-        <v>9</v>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M264" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -15458,15 +14664,12 @@
       <c r="J265">
         <v>874</v>
       </c>
-      <c r="K265">
-        <v>4</v>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L265" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M265" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -15515,17 +14718,14 @@
       <c r="J266">
         <v>1705</v>
       </c>
-      <c r="K266">
-        <v>3</v>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M266" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -15572,17 +14772,14 @@
       <c r="J267">
         <v>1499</v>
       </c>
-      <c r="K267">
-        <v>3</v>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M267" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -15629,15 +14826,12 @@
       <c r="J268">
         <v>152</v>
       </c>
-      <c r="K268">
-        <v>4</v>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L268" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M268" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -15686,15 +14880,12 @@
       <c r="J269">
         <v>241</v>
       </c>
-      <c r="K269">
-        <v>4</v>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L269" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M269" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -15743,15 +14934,12 @@
       <c r="J270">
         <v>104</v>
       </c>
-      <c r="K270">
-        <v>4</v>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L270" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M270" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -15800,15 +14988,12 @@
       <c r="J271">
         <v>357</v>
       </c>
-      <c r="K271">
-        <v>4</v>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L271" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M271" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -15857,17 +15042,14 @@
       <c r="J272">
         <v>1915</v>
       </c>
-      <c r="K272">
-        <v>5</v>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L272" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M272" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -15914,15 +15096,12 @@
       <c r="J273">
         <v>801</v>
       </c>
-      <c r="K273">
-        <v>4</v>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L273" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M273" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -15971,15 +15150,12 @@
       <c r="J274">
         <v>555</v>
       </c>
-      <c r="K274">
-        <v>4</v>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L274" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M274" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -16028,17 +15204,14 @@
       <c r="J275">
         <v>2230</v>
       </c>
-      <c r="K275">
-        <v>5</v>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M275" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -16085,17 +15258,14 @@
       <c r="J276">
         <v>1182</v>
       </c>
-      <c r="K276">
-        <v>3</v>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M276" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -16142,17 +15312,14 @@
       <c r="J277">
         <v>2863</v>
       </c>
-      <c r="K277">
-        <v>5</v>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M277" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -16199,17 +15366,14 @@
       <c r="J278">
         <v>1621</v>
       </c>
-      <c r="K278">
-        <v>3</v>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L278" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M278" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -16256,17 +15420,14 @@
       <c r="J279">
         <v>986</v>
       </c>
-      <c r="K279">
-        <v>3</v>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M279" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -16313,17 +15474,14 @@
       <c r="J280">
         <v>1704</v>
       </c>
-      <c r="K280">
-        <v>3</v>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M280" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -16370,17 +15528,14 @@
       <c r="J281">
         <v>1558</v>
       </c>
-      <c r="K281">
-        <v>3</v>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M281" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -16427,17 +15582,14 @@
       <c r="J282">
         <v>1603</v>
       </c>
-      <c r="K282">
-        <v>3</v>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M282" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -16484,15 +15636,12 @@
       <c r="J283">
         <v>455</v>
       </c>
-      <c r="K283">
-        <v>4</v>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L283" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M283" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -16541,15 +15690,12 @@
       <c r="J284">
         <v>440</v>
       </c>
-      <c r="K284">
-        <v>4</v>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L284" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M284" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -16598,17 +15744,14 @@
       <c r="J285">
         <v>2044</v>
       </c>
-      <c r="K285">
-        <v>5</v>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L285" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M285" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -16655,15 +15798,12 @@
       <c r="J286">
         <v>145</v>
       </c>
-      <c r="K286">
-        <v>4</v>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L286" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M286" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -16712,17 +15852,14 @@
       <c r="J287">
         <v>1930</v>
       </c>
-      <c r="K287">
-        <v>5</v>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M287" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -16769,17 +15906,14 @@
       <c r="J288">
         <v>1565</v>
       </c>
-      <c r="K288">
-        <v>3</v>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L288" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M288" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -16826,15 +15960,12 @@
       <c r="J289">
         <v>76</v>
       </c>
-      <c r="K289">
-        <v>4</v>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L289" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M289" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -16883,15 +16014,12 @@
       <c r="J290">
         <v>295</v>
       </c>
-      <c r="K290">
-        <v>4</v>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L290" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M290" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -16940,17 +16068,14 @@
       <c r="J291">
         <v>1803</v>
       </c>
-      <c r="K291">
-        <v>3</v>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L291" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M291" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -16997,17 +16122,14 @@
       <c r="J292">
         <v>4483</v>
       </c>
-      <c r="K292">
-        <v>9</v>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L292" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M292" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -17054,17 +16176,14 @@
       <c r="J293">
         <v>1248</v>
       </c>
-      <c r="K293">
-        <v>7</v>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L293" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M293" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
@@ -17111,15 +16230,12 @@
       <c r="J294">
         <v>122</v>
       </c>
-      <c r="K294">
-        <v>4</v>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L294" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M294" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -17168,15 +16284,12 @@
       <c r="J295">
         <v>270</v>
       </c>
-      <c r="K295">
-        <v>4</v>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L295" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M295" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -17225,15 +16338,12 @@
       <c r="J296">
         <v>599</v>
       </c>
-      <c r="K296">
-        <v>4</v>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L296" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M296" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -17282,15 +16392,12 @@
       <c r="J297">
         <v>603</v>
       </c>
-      <c r="K297">
-        <v>4</v>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L297" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M297" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -17339,17 +16446,14 @@
       <c r="J298">
         <v>4234</v>
       </c>
-      <c r="K298">
-        <v>9</v>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L298" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M298" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -17396,17 +16500,14 @@
       <c r="J299">
         <v>1491</v>
       </c>
-      <c r="K299">
-        <v>3</v>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M299" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -17453,17 +16554,14 @@
       <c r="J300">
         <v>3255</v>
       </c>
-      <c r="K300">
-        <v>9</v>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M300" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -17510,17 +16608,14 @@
       <c r="J301">
         <v>2496</v>
       </c>
-      <c r="K301">
-        <v>5</v>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L301" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M301" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -17567,17 +16662,14 @@
       <c r="J302">
         <v>938</v>
       </c>
-      <c r="K302">
-        <v>3</v>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L302" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M302" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -17624,15 +16716,12 @@
       <c r="J303">
         <v>0</v>
       </c>
-      <c r="K303">
-        <v>4</v>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L303" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M303" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -17681,15 +16770,12 @@
       <c r="J304">
         <v>422</v>
       </c>
-      <c r="K304">
-        <v>4</v>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
       </c>
       <c r="L304" t="inlineStr">
-        <is>
-          <t>G3</t>
-        </is>
-      </c>
-      <c r="M304" t="inlineStr">
         <is>
           <t>5-6 años</t>
         </is>
@@ -17738,17 +16824,14 @@
       <c r="J305">
         <v>1661</v>
       </c>
-      <c r="K305">
-        <v>3</v>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>G1</t>
+        </is>
       </c>
       <c r="L305" t="inlineStr">
         <is>
-          <t>G2</t>
-        </is>
-      </c>
-      <c r="M305" t="inlineStr">
-        <is>
-          <t>3-4 años</t>
+          <t>1-2 años</t>
         </is>
       </c>
     </row>
@@ -17795,17 +16878,14 @@
       <c r="J306">
         <v>3663</v>
       </c>
-      <c r="K306">
-        <v>9</v>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>G2</t>
+        </is>
       </c>
       <c r="L306" t="inlineStr">
         <is>
-          <t>G4</t>
-        </is>
-      </c>
-      <c r="M306" t="inlineStr">
-        <is>
-          <t>7-8 años</t>
+          <t>3-4 años</t>
         </is>
       </c>
     </row>
@@ -17852,17 +16932,14 @@
       <c r="J307">
         <v>5461</v>
       </c>
-      <c r="K307">
-        <v>8</v>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>G4</t>
+        </is>
       </c>
       <c r="L307" t="inlineStr">
         <is>
-          <t>G1</t>
-        </is>
-      </c>
-      <c r="M307" t="inlineStr">
-        <is>
-          <t>1-2 años</t>
+          <t>7-8 años</t>
         </is>
       </c>
     </row>
